--- a/stud_data.xlsx
+++ b/stud_data.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\PycharmProjects\tgbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\TgBotForStudents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EAC3A5-A7FF-4870-97A1-3445A720D721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{C5E4C724-E136-4FD5-8DB5-95B9BE198721}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Образец" sheetId="1" r:id="rId1"/>
     <sheet name="{Имя_Ученика}" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Имя родителя</t>
   </si>
@@ -53,13 +52,22 @@
   </si>
   <si>
     <t>id ученика</t>
+  </si>
+  <si>
+    <t>Изучить модуль</t>
+  </si>
+  <si>
+    <t>Git Hub</t>
+  </si>
+  <si>
+    <t>Максим</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +75,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6897BB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,8 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -404,26 +422,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87720776-4A20-4F15-8211-732FD0916432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" customWidth="1"/>
-    <col min="5" max="5" width="19.86328125" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="9" max="9" width="9.86328125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,26 +476,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFD3006-3D8F-47E1-B016-9685FE35E5D5}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" customWidth="1"/>
-    <col min="5" max="5" width="19.86328125" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="9" max="9" width="9.86328125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,9 +522,39 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>79689560398</v>
+      </c>
+      <c r="C2">
+        <v>79689560398</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10990</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1737599584</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stud_data.xlsx
+++ b/stud_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\TgBotForStudents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\PycharmProjects\tgbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C04ED7F-38AA-41FA-B92F-D61EFA0FB117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Образец" sheetId="1" r:id="rId1"/>
-    <sheet name="{Имя_Ученика}" sheetId="2" r:id="rId2"/>
+    <sheet name="Максим" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -422,23 +423,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.1328125" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="9" max="9" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -476,23 +477,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.1328125" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="9" max="9" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/stud_data.xlsx
+++ b/stud_data.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Образец" sheetId="1" r:id="rId1"/>
-    <sheet name="{Имя_Ученика}" sheetId="2" r:id="rId2"/>
+    <sheet name="Максим" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
